--- a/output/fit_clients/fit_round_237.xlsx
+++ b/output/fit_clients/fit_round_237.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1874257320.266163</v>
+        <v>1633685572.604378</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1111414036165777</v>
+        <v>0.0973979738638313</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04321811681794063</v>
+        <v>0.04518671197087176</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>937128638.8588052</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2379793316.292904</v>
+        <v>1795483721.217609</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1478130474174695</v>
+        <v>0.176845360060112</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03889624387364979</v>
+        <v>0.04537907901331394</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1189896757.01226</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4813298456.807067</v>
+        <v>4855456524.762136</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1323436882429814</v>
+        <v>0.1330735247797541</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02438020598237236</v>
+        <v>0.02817607516770301</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>86</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2406649300.182526</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3423806143.889477</v>
+        <v>3647331995.346077</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06662472165476113</v>
+        <v>0.07198292566326625</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03087930998604918</v>
+        <v>0.03789975238234661</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>89</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1711903113.768539</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2044057728.322828</v>
+        <v>2748370725.545694</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1036190071830428</v>
+        <v>0.1162690219064907</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03417470607590387</v>
+        <v>0.05686918491198677</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>40</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1022028888.977298</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2414534967.253386</v>
+        <v>2256626059.804201</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09588731793741863</v>
+        <v>0.07523044448032019</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04092122200000149</v>
+        <v>0.03938780277725476</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>74</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1207267504.875213</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2802217650.797438</v>
+        <v>3885165337.518015</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2050154948902694</v>
+        <v>0.1330724220177769</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02921823018756839</v>
+        <v>0.02097688939786885</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>76</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1401108862.686014</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2296152229.606043</v>
+        <v>2231995961.171004</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1334365310475926</v>
+        <v>0.1646172523846231</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03183816255152577</v>
+        <v>0.02362335643355837</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1148076100.315488</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4801815459.507088</v>
+        <v>4819135331.138172</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2127078635206155</v>
+        <v>0.2133389527664853</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04151228777341001</v>
+        <v>0.03975390726510609</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>100</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2400907813.697384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3657196114.675358</v>
+        <v>2995909746.254391</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1505025454075943</v>
+        <v>0.1915901045955828</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0429406212693217</v>
+        <v>0.0353170057995873</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>98</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1828598046.143735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2387800227.379476</v>
+        <v>2873968446.31287</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1393147260161632</v>
+        <v>0.1931045342382975</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04817654380522187</v>
+        <v>0.04610740609446531</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>82</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1193900075.648294</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3401623115.648986</v>
+        <v>4221282598.899364</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09135919282769192</v>
+        <v>0.07550460771185066</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02622509103525504</v>
+        <v>0.01991785650519736</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>80</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1700811643.140746</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2589667359.852677</v>
+        <v>2469748579.730469</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1375426638714399</v>
+        <v>0.1568020122090042</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02961164113873955</v>
+        <v>0.02984388490710308</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>79</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1294833744.067601</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1118990699.626844</v>
+        <v>1784472228.063674</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0899253416387763</v>
+        <v>0.06600464014243589</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04396253622112006</v>
+        <v>0.04005181042879253</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>559495348.9172693</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2128794652.883746</v>
+        <v>2637073052.3379</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1023899740518353</v>
+        <v>0.1131759938728591</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04861497620942376</v>
+        <v>0.0395750140879515</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>42</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1064397390.406302</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3514269695.878195</v>
+        <v>3211265575.7993</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1397253778316807</v>
+        <v>0.1622468860258058</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03694779209383712</v>
+        <v>0.03810185656833308</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>69</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1757134906.5297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3472884231.086178</v>
+        <v>3643678891.782449</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1262132569451728</v>
+        <v>0.1763701586031044</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02414175805726669</v>
+        <v>0.02300955406559144</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>78</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1736442111.555643</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>876995465.2036828</v>
+        <v>961109534.8084893</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1440247779977268</v>
+        <v>0.141024402425364</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02673310677388282</v>
+        <v>0.02516009157305529</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>438497731.8820647</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1892514062.349767</v>
+        <v>1823429649.224092</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1272110425095745</v>
+        <v>0.148638858491793</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02277364155591574</v>
+        <v>0.02331090195156715</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>36</v>
-      </c>
-      <c r="J20" t="n">
-        <v>946257068.9651537</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2058397107.960531</v>
+        <v>2730249096.955349</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06806432732453177</v>
+        <v>0.07341561528994223</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03213422801317617</v>
+        <v>0.03013815327926442</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>19</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1029198584.357008</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3730809567.75387</v>
+        <v>2789218217.238766</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09522777273253287</v>
+        <v>0.10402558025031</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04142847657908566</v>
+        <v>0.05510091987147926</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>66</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1865404801.636608</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1420557810.820108</v>
+        <v>1526249011.275795</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1349847344575324</v>
+        <v>0.1840857383648128</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04228858998976241</v>
+        <v>0.03770993406611797</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>710278904.7280973</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3902722767.726634</v>
+        <v>3766658418.746733</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1331654137331059</v>
+        <v>0.09678401291457396</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03176895496875984</v>
+        <v>0.0238716192023301</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>69</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1951361358.363391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1097865259.733039</v>
+        <v>1426731879.692307</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08398755063797066</v>
+        <v>0.08957806570982749</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02658052918471716</v>
+        <v>0.02833487712913024</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>548932671.3273888</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1007034162.342182</v>
+        <v>1338921151.090766</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07505631934756896</v>
+        <v>0.09966444717247908</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03499270386898273</v>
+        <v>0.0363577362346883</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>503517054.9450773</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4629926698.630796</v>
+        <v>4609921855.520107</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1211507842783878</v>
+        <v>0.1125023273482113</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01871484108651885</v>
+        <v>0.02117687400115799</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>56</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2314963328.143705</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3547258426.687428</v>
+        <v>2910267073.829297</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1338801940921219</v>
+        <v>0.1307434759887805</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04198479538432289</v>
+        <v>0.04251356052491105</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>76</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1773629272.06421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4718585523.904907</v>
+        <v>5384447994.711111</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09118650588804354</v>
+        <v>0.1295515672409128</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03776224934861975</v>
+        <v>0.04498109705008782</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>105</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2359292728.983431</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1703258155.769585</v>
+        <v>2175283055.113486</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1223108974551963</v>
+        <v>0.09023137416035271</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02517992411550248</v>
+        <v>0.02652109104100952</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>851629081.5221987</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>984263104.0471526</v>
+        <v>1201243314.975168</v>
       </c>
       <c r="F31" t="n">
-        <v>0.107023016584471</v>
+        <v>0.1056659380721506</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03928136185919422</v>
+        <v>0.04851082833148385</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>492131554.2639334</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1420763152.201096</v>
+        <v>1367228418.192896</v>
       </c>
       <c r="F32" t="n">
-        <v>0.081929353022828</v>
+        <v>0.1080554281467929</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03043728335508272</v>
+        <v>0.03615919673112599</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>710381628.0272235</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2977887354.111888</v>
+        <v>2108824919.737114</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1744014863794779</v>
+        <v>0.2056755521421072</v>
       </c>
       <c r="G33" t="n">
-        <v>0.050667477112335</v>
+        <v>0.0591327048924364</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>70</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1488943674.57451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>952807564.6373386</v>
+        <v>1132184275.260656</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1049452482015045</v>
+        <v>0.1118586418884174</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02818608815437556</v>
+        <v>0.02535828095919724</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>476403827.8854982</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>987871362.3288683</v>
+        <v>1185360681.827102</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09590078094080218</v>
+        <v>0.1111106411798793</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0324482965053149</v>
+        <v>0.02949216865477844</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>493935702.3887577</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2014989138.747698</v>
+        <v>2010521885.207384</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1798032556011142</v>
+        <v>0.1398411393692029</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02026623155875519</v>
+        <v>0.02285239758063986</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>59</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1007494630.203844</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2754531502.481394</v>
+        <v>2682418645.327588</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1050247502117813</v>
+        <v>0.104319445822148</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03982830295113979</v>
+        <v>0.03768338790260364</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>62</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1377265882.33567</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1662525667.540372</v>
+        <v>1528466397.676618</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1098273775941732</v>
+        <v>0.1087882138253096</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03237745618095896</v>
+        <v>0.03467534305465458</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>831262860.0567709</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1840837413.486105</v>
+        <v>1383866493.878361</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1519842388107798</v>
+        <v>0.1278176514642479</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03172743688911022</v>
+        <v>0.02886645855639707</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>920418725.4167373</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1322844399.129518</v>
+        <v>1813016034.546387</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1428132725253973</v>
+        <v>0.1253141650297152</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04076485972914156</v>
+        <v>0.03878981929246445</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>661422210.0771387</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1822824878.325452</v>
+        <v>1794997631.16872</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1502967888322308</v>
+        <v>0.1365170975359853</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03865091175237959</v>
+        <v>0.03227589647572194</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>57</v>
-      </c>
-      <c r="J41" t="n">
-        <v>911412530.7048339</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4190509511.863952</v>
+        <v>3798051420.861799</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1031634799886833</v>
+        <v>0.1131921097280698</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02998306177148504</v>
+        <v>0.03177520649908851</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>79</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2095254798.327036</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2848423695.420606</v>
+        <v>2000809499.788063</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1712724230466899</v>
+        <v>0.2041279781360983</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0158733620608243</v>
+        <v>0.02579593534887106</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>81</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1424211861.331455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1472218425.902379</v>
+        <v>1927557694.151389</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1009363880007568</v>
+        <v>0.06372462053011924</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03606737772334825</v>
+        <v>0.03078718340855532</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>736109213.9802972</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1723899348.085973</v>
+        <v>1560793601.262405</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1868138525019376</v>
+        <v>0.1740467150288933</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05240917667036197</v>
+        <v>0.05349238924439013</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>861949637.1052943</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5436359549.488193</v>
+        <v>3910277192.890575</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1205715401696634</v>
+        <v>0.1624697197814368</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04156123689381203</v>
+        <v>0.04100769286053937</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>85</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2718179826.493585</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5109333533.188947</v>
+        <v>3681397493.972031</v>
       </c>
       <c r="F47" t="n">
-        <v>0.19702213291016</v>
+        <v>0.1685152052201533</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04437929569681388</v>
+        <v>0.04622215817632831</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>64</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2554666828.608804</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4413456011.064997</v>
+        <v>3824894912.469846</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09399475601100163</v>
+        <v>0.06978083517726172</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0324931738101072</v>
+        <v>0.02889341406778857</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>81</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2206728015.848806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1807357762.559171</v>
+        <v>1503246737.862326</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1728121381320705</v>
+        <v>0.1770475470332847</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03256821597567973</v>
+        <v>0.04414196555673599</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>903678865.5089895</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3098382319.256308</v>
+        <v>3930068108.038417</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1765002913144204</v>
+        <v>0.1314911176401926</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04663677016373705</v>
+        <v>0.03313910273400595</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>80</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1549191212.451334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1332306595.85225</v>
+        <v>1449625608.785726</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1385614712626543</v>
+        <v>0.1616039277991274</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04299772273452265</v>
+        <v>0.0336528399524206</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>666153328.0159018</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4875875312.552106</v>
+        <v>3213504495.371735</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08612156125644956</v>
+        <v>0.1336319683625535</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06056994910440244</v>
+        <v>0.06182149441693858</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>98</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2437937661.196478</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2521676060.750468</v>
+        <v>2626058210.002761</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1904394979475022</v>
+        <v>0.1563938623924094</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02839938669285282</v>
+        <v>0.02273392104146236</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>68</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1260838095.828627</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3337968646.427552</v>
+        <v>4399737661.987195</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1432933410284111</v>
+        <v>0.1204661036468838</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03976258936312187</v>
+        <v>0.03969989086517787</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>77</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1668984335.271454</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3929103208.42448</v>
+        <v>4193560499.595937</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2095135627499043</v>
+        <v>0.2086736744590265</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02034797149033604</v>
+        <v>0.02945611388337828</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>64</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1964551575.961289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1264793175.964717</v>
+        <v>1502103963.859114</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1244312781133916</v>
+        <v>0.1352545975386923</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03833137459931622</v>
+        <v>0.04262650126229972</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>632396665.0980215</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3884967848.77128</v>
+        <v>3832444337.644883</v>
       </c>
       <c r="F57" t="n">
-        <v>0.127427350770203</v>
+        <v>0.1355548604731241</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02667507004203647</v>
+        <v>0.02351290018647475</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>75</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1942484003.083827</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1444574000.754284</v>
+        <v>1460992202.384397</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1513619985992682</v>
+        <v>0.1787930043579476</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03780252569947694</v>
+        <v>0.03410438460615212</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>722287036.5604023</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3463433851.057746</v>
+        <v>3723325413.422612</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1040307562008314</v>
+        <v>0.1039297975607745</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03761749108167295</v>
+        <v>0.03757721364148059</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>64</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1731716927.35129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2728554291.738942</v>
+        <v>3558257558.675514</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2041950908711964</v>
+        <v>0.1354902876939526</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02109366651149294</v>
+        <v>0.02619314819960623</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>76</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1364277187.734113</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2171434544.021988</v>
+        <v>3310847479.089683</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1686747614470626</v>
+        <v>0.1608288854061606</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02636969548872998</v>
+        <v>0.0321289801199921</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>81</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1085717330.606806</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1650776574.543525</v>
+        <v>1873405823.255932</v>
       </c>
       <c r="F62" t="n">
-        <v>0.174548238340639</v>
+        <v>0.1277500481175239</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04542161437721778</v>
+        <v>0.03051059304382442</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>825388292.96038</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3871035298.921243</v>
+        <v>4889321476.483252</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1021185899412715</v>
+        <v>0.08898349449217324</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03095876020548365</v>
+        <v>0.0378696796409402</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>68</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1935517717.589254</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4770829667.940928</v>
+        <v>4158991271.689134</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1589305169320374</v>
+        <v>0.1289944238164173</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03059199539109752</v>
+        <v>0.02404813650699655</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>74</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2385414924.039742</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4343052760.55365</v>
+        <v>4930870873.466192</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1506977403731846</v>
+        <v>0.1086875515932749</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02708274716709368</v>
+        <v>0.02385564484765894</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>86</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2171526378.363813</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4149327622.625056</v>
+        <v>3507686199.22794</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1567295390517673</v>
+        <v>0.1000113627529888</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04702255560740228</v>
+        <v>0.04534144607507208</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>69</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2074663792.865572</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2861371338.987903</v>
+        <v>2511774575.170477</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06928438131116398</v>
+        <v>0.1003826616202135</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04758108567233716</v>
+        <v>0.03515487207501004</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>78</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1430685699.488327</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5729112513.990441</v>
+        <v>5614965022.905699</v>
       </c>
       <c r="F68" t="n">
-        <v>0.107096998611729</v>
+        <v>0.1504032048855424</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03174337636429697</v>
+        <v>0.05166228705190452</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>79</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2864556357.565062</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2247423170.331304</v>
+        <v>2358855683.228362</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1450152823988911</v>
+        <v>0.1680269233205084</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0464665204870339</v>
+        <v>0.05416894531299969</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1123711622.077003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3599614286.678265</v>
+        <v>2772626545.410363</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1033655403040908</v>
+        <v>0.08023615921358125</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0344504806170934</v>
+        <v>0.04389861027279764</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>66</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1799807159.408841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3943021578.051572</v>
+        <v>5638606968.387653</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1288827549149902</v>
+        <v>0.1698978460877444</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02456321682119934</v>
+        <v>0.02808864389318185</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>87</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1971510815.78463</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2235151265.165367</v>
+        <v>1627642086.583097</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06786931685631234</v>
+        <v>0.0715150681052191</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03975541511060836</v>
+        <v>0.03215033069636129</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1117575541.000253</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2860298060.502904</v>
+        <v>3085210799.486038</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07135856619386829</v>
+        <v>0.07297713406596948</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04941166187753641</v>
+        <v>0.04385243440933365</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>91</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1430149039.021477</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3832374807.777693</v>
+        <v>3780376434.621447</v>
       </c>
       <c r="F74" t="n">
-        <v>0.162971014845871</v>
+        <v>0.1389918625591698</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02839719220390502</v>
+        <v>0.03429923426739994</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>81</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1916187397.314152</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2486608707.560006</v>
+        <v>2292919996.767112</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1402944141242737</v>
+        <v>0.1205712407903223</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02614370347780666</v>
+        <v>0.03136420498131198</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1243304272.304477</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5182878523.734788</v>
+        <v>4498752991.055563</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08104777162907538</v>
+        <v>0.09155433711381689</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02606832144969161</v>
+        <v>0.03336363807181457</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>53</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2591439296.170646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1982721383.482092</v>
+        <v>1885503868.721947</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1674647760114291</v>
+        <v>0.1824829203677034</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02957648581124278</v>
+        <v>0.03165194715817416</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>991360750.6662644</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4227628617.727418</v>
+        <v>4343255271.565847</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1085442217459434</v>
+        <v>0.1054108549402155</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03597624137963489</v>
+        <v>0.04999937207940593</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>83</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2113814258.309749</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1196436573.829995</v>
+        <v>1646495197.277453</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1500952056592509</v>
+        <v>0.1515929550910146</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02598611827689574</v>
+        <v>0.039513000649316</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>598218268.0304793</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5542020630.049072</v>
+        <v>4269303278.832713</v>
       </c>
       <c r="F80" t="n">
-        <v>0.091581051958808</v>
+        <v>0.09576210833256317</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02889657626993714</v>
+        <v>0.02590701497747488</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>50</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2771010391.175492</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3880242686.422568</v>
+        <v>3317729645.807538</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1255978535604639</v>
+        <v>0.1073019529167872</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02465582473081608</v>
+        <v>0.03130428817903762</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>55</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1940121301.980145</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5163643319.658073</v>
+        <v>5543063471.366537</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1788659272066246</v>
+        <v>0.1959610160308658</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01990830524648044</v>
+        <v>0.02704190051969493</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>86</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2581821634.607962</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1539566428.38539</v>
+        <v>1576039801.867284</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1492817115952801</v>
+        <v>0.09545850256721541</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03566762672968067</v>
+        <v>0.02972289381613534</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>769783142.1845138</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1640838491.303549</v>
+        <v>1928502564.971484</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1024537509611271</v>
+        <v>0.07586442650758415</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04073891850138028</v>
+        <v>0.04934184838971098</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>820419303.2248764</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3171941867.864023</v>
+        <v>3368877546.126883</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1455388453717371</v>
+        <v>0.1134499361747537</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04168590972900545</v>
+        <v>0.04799637444842953</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>89</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1585971013.040522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2609496562.43003</v>
+        <v>2037759495.179275</v>
       </c>
       <c r="F86" t="n">
-        <v>0.107828785273038</v>
+        <v>0.1151515180670636</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02367660017468353</v>
+        <v>0.02399283981654905</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>30</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1304748393.568152</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1449722992.482389</v>
+        <v>1250139330.984793</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1878586474108516</v>
+        <v>0.1544405250334824</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03514332882060223</v>
+        <v>0.03223174088766127</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>724861615.8142494</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3609269669.803365</v>
+        <v>2445862812.534335</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1464673929998538</v>
+        <v>0.1180849853568854</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02841083608547716</v>
+        <v>0.03396636732387698</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>94</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1804634925.557076</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2843574074.050602</v>
+        <v>3438470514.959852</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1197526167094721</v>
+        <v>0.1525106583562655</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02696760157900363</v>
+        <v>0.03317720901214823</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>81</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1421787086.591162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2025178243.822692</v>
+        <v>1653191927.584862</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09452013100735131</v>
+        <v>0.1046645625451193</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0371363485409411</v>
+        <v>0.03453010460123331</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1012589196.78587</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1830602206.628772</v>
+        <v>1535753225.584165</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1567789500585545</v>
+        <v>0.162537990013268</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05624466674604985</v>
+        <v>0.04820625315505594</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>915301098.1414598</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2947963232.531796</v>
+        <v>2181322564.236117</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08908742627329234</v>
+        <v>0.1103769783260226</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04035367332801947</v>
+        <v>0.03594927439033255</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>59</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1473981634.03754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3132127219.955483</v>
+        <v>3615434907.66251</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0896868056129862</v>
+        <v>0.1040248836232034</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04710174648407303</v>
+        <v>0.04732329922880132</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>71</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1566063666.699331</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1750572374.123216</v>
+        <v>2118394755.936268</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1529345378995451</v>
+        <v>0.1102437620424263</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03487730555910062</v>
+        <v>0.0395747511697113</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>875286152.9864115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2932489490.05478</v>
+        <v>2997557871.236418</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1004632983751501</v>
+        <v>0.1272416703072896</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0499263400757828</v>
+        <v>0.04788106405232037</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>57</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1466244749.646809</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2049222142.123842</v>
+        <v>2072985222.640304</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1356661981185158</v>
+        <v>0.1162152054239082</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03103256241416161</v>
+        <v>0.03525200680460793</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1024611052.782272</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4843503308.018647</v>
+        <v>3465736409.092134</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1659196138092132</v>
+        <v>0.160643649671361</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02849947932746615</v>
+        <v>0.02835605358302844</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>76</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2421751778.210531</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3871478107.550602</v>
+        <v>3273166128.016191</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0994018940527593</v>
+        <v>0.1176200836151977</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02495396081722064</v>
+        <v>0.02911356559692605</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>63</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1935739097.557749</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3353548782.688413</v>
+        <v>2385694548.391933</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0986219191961667</v>
+        <v>0.1386241490006314</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02374303423642331</v>
+        <v>0.0304205518759395</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>76</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1676774402.905025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3971359778.27248</v>
+        <v>3692098635.248859</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1264765820233085</v>
+        <v>0.1538565466466068</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0219107973037576</v>
+        <v>0.02379788193848338</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>74</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1985679957.518014</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2393474542.42624</v>
+        <v>3178310809.316197</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2154960856781663</v>
+        <v>0.1557058776854622</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04314814691922347</v>
+        <v>0.04374377041849112</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>96</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1196737280.079207</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_237.xlsx
+++ b/output/fit_clients/fit_round_237.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1633685572.604378</v>
+        <v>2058317876.544605</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0973979738638313</v>
+        <v>0.0943963313801543</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04518671197087176</v>
+        <v>0.03748622960029434</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1795483721.217609</v>
+        <v>2245302589.438323</v>
       </c>
       <c r="F3" t="n">
-        <v>0.176845360060112</v>
+        <v>0.1713806585621926</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04537907901331394</v>
+        <v>0.04755283385627699</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4855456524.762136</v>
+        <v>3695481955.119376</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1330735247797541</v>
+        <v>0.1542601660710746</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02817607516770301</v>
+        <v>0.02727372468479</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3647331995.346077</v>
+        <v>3086622687.967839</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07198292566326625</v>
+        <v>0.06883001786365567</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03789975238234661</v>
+        <v>0.0385072160203229</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2748370725.545694</v>
+        <v>2689434624.646075</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1162690219064907</v>
+        <v>0.1056252531627034</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05686918491198677</v>
+        <v>0.04916691872576625</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2256626059.804201</v>
+        <v>2733295591.229243</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07523044448032019</v>
+        <v>0.07451105215957352</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03938780277725476</v>
+        <v>0.04603600273864458</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3885165337.518015</v>
+        <v>3779329501.146876</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1330724220177769</v>
+        <v>0.1418123443169376</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02097688939786885</v>
+        <v>0.02272867802692217</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2231995961.171004</v>
+        <v>1574558053.396969</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1646172523846231</v>
+        <v>0.1363875583945729</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02362335643355837</v>
+        <v>0.03269576474293329</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4819135331.138172</v>
+        <v>4981282007.129937</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2133389527664853</v>
+        <v>0.1322156134037444</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03975390726510609</v>
+        <v>0.05298995836203308</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2995909746.254391</v>
+        <v>2589975140.121919</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1915901045955828</v>
+        <v>0.1694334421567955</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0353170057995873</v>
+        <v>0.03831936195206417</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2873968446.31287</v>
+        <v>2647379536.709354</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1931045342382975</v>
+        <v>0.171757709247558</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04610740609446531</v>
+        <v>0.03753040623420102</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4221282598.899364</v>
+        <v>3658919713.473207</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07550460771185066</v>
+        <v>0.08998687937137623</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01991785650519736</v>
+        <v>0.03092204455197934</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2469748579.730469</v>
+        <v>3058097461.961324</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1568020122090042</v>
+        <v>0.1807652766102183</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02984388490710308</v>
+        <v>0.04048754527221531</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1784472228.063674</v>
+        <v>1241379575.961431</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06600464014243589</v>
+        <v>0.09540258499429626</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04005181042879253</v>
+        <v>0.0477407901770167</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,16 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2637073052.3379</v>
+        <v>1986600512.852746</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1131759938728591</v>
+        <v>0.09172980516322579</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0395750140879515</v>
+        <v>0.04759210815529722</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3211265575.7993</v>
+        <v>4204728792.345526</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1622468860258058</v>
+        <v>0.1592723623353573</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03810185656833308</v>
+        <v>0.04484516667650268</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3643678891.782449</v>
+        <v>2950849799.701702</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1763701586031044</v>
+        <v>0.1352340931109802</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02300955406559144</v>
+        <v>0.02409657140746024</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>961109534.8084893</v>
+        <v>895789441.9619162</v>
       </c>
       <c r="F19" t="n">
-        <v>0.141024402425364</v>
+        <v>0.1899971422127533</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02516009157305529</v>
+        <v>0.02290000556626515</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1823429649.224092</v>
+        <v>1797102958.069539</v>
       </c>
       <c r="F20" t="n">
-        <v>0.148638858491793</v>
+        <v>0.1183418464120432</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02331090195156715</v>
+        <v>0.02408379671858834</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2730249096.955349</v>
+        <v>1729269563.357987</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07341561528994223</v>
+        <v>0.08549513996769761</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03013815327926442</v>
+        <v>0.04018977458641191</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2789218217.238766</v>
+        <v>2679253428.460448</v>
       </c>
       <c r="F22" t="n">
-        <v>0.10402558025031</v>
+        <v>0.0980046276940623</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05510091987147926</v>
+        <v>0.05024099001034002</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1526249011.275795</v>
+        <v>1286169069.872578</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1840857383648128</v>
+        <v>0.1531559847732413</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03770993406611797</v>
+        <v>0.05027612270236344</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3766658418.746733</v>
+        <v>3945094842.919728</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09678401291457396</v>
+        <v>0.09129540200655646</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0238716192023301</v>
+        <v>0.0319509212124775</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1426731879.692307</v>
+        <v>1176226494.700646</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08957806570982749</v>
+        <v>0.1142927832346284</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02833487712913024</v>
+        <v>0.02543262761307062</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1338921151.090766</v>
+        <v>1325395189.405711</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09966444717247908</v>
+        <v>0.1244643120091674</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0363577362346883</v>
+        <v>0.02360787016602695</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4609921855.520107</v>
+        <v>4066919858.941018</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1125023273482113</v>
+        <v>0.1245082307511832</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02117687400115799</v>
+        <v>0.02359526434847141</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2910267073.829297</v>
+        <v>2864605815.787864</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1307434759887805</v>
+        <v>0.131744559376051</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04251356052491105</v>
+        <v>0.0429254642736755</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5384447994.711111</v>
+        <v>5224552315.314366</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1295515672409128</v>
+        <v>0.1221053312260531</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04498109705008782</v>
+        <v>0.0377904097455682</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2175283055.113486</v>
+        <v>1859702628.739419</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09023137416035271</v>
+        <v>0.1376550918361708</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02652109104100952</v>
+        <v>0.03479415979422016</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1201243314.975168</v>
+        <v>1176910303.878068</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1056659380721506</v>
+        <v>0.08722525028208027</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04851082833148385</v>
+        <v>0.03885823860022457</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1367228418.192896</v>
+        <v>1576147820.587701</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1080554281467929</v>
+        <v>0.0887710854323794</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03615919673112599</v>
+        <v>0.03011127724357499</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2108824919.737114</v>
+        <v>3014813109.285142</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2056755521421072</v>
+        <v>0.1391104282509697</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0591327048924364</v>
+        <v>0.03693925685035456</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1132184275.260656</v>
+        <v>1122501610.778606</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1118586418884174</v>
+        <v>0.1219305110254348</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02535828095919724</v>
+        <v>0.0267294110501736</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1185360681.827102</v>
+        <v>1204787939.022758</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1111106411798793</v>
+        <v>0.1041235820784966</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02949216865477844</v>
+        <v>0.02836029329537936</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2010521885.207384</v>
+        <v>2130443904.53539</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1398411393692029</v>
+        <v>0.1498502669714838</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02285239758063986</v>
+        <v>0.02839398038919474</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2682418645.327588</v>
+        <v>2319603045.765193</v>
       </c>
       <c r="F37" t="n">
-        <v>0.104319445822148</v>
+        <v>0.08867893838188941</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03768338790260364</v>
+        <v>0.0331541955244721</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1528466397.676618</v>
+        <v>2117495520.454552</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1087882138253096</v>
+        <v>0.1033388987091518</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03467534305465458</v>
+        <v>0.02823421913967443</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1383866493.878361</v>
+        <v>1946470050.61278</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1278176514642479</v>
+        <v>0.1184925349243248</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02886645855639707</v>
+        <v>0.02078325395629679</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1813016034.546387</v>
+        <v>1696442262.815845</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1253141650297152</v>
+        <v>0.1318207269861176</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03878981929246445</v>
+        <v>0.04812762263691107</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1794997631.16872</v>
+        <v>2206174184.502584</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1365170975359853</v>
+        <v>0.1270658474082828</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03227589647572194</v>
+        <v>0.0383523699635852</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3798051420.861799</v>
+        <v>3936709803.005907</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1131921097280698</v>
+        <v>0.08467496219301873</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03177520649908851</v>
+        <v>0.04513116333991725</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2000809499.788063</v>
+        <v>2981016974.302247</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2041279781360983</v>
+        <v>0.1564804189572092</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02579593534887106</v>
+        <v>0.02167264455719602</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1927557694.151389</v>
+        <v>2070775345.007688</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06372462053011924</v>
+        <v>0.09745261618664655</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03078718340855532</v>
+        <v>0.02806554331769145</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1560793601.262405</v>
+        <v>2350338250.175846</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1740467150288933</v>
+        <v>0.1545423143900766</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05349238924439013</v>
+        <v>0.05028031789525494</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3910277192.890575</v>
+        <v>4829769510.368052</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1624697197814368</v>
+        <v>0.1691678111722713</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04100769286053937</v>
+        <v>0.04909620552364136</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3681397493.972031</v>
+        <v>3585464961.229579</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1685152052201533</v>
+        <v>0.1777549014182099</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04622215817632831</v>
+        <v>0.05866098254796271</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3824894912.469846</v>
+        <v>4498975595.140163</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06978083517726172</v>
+        <v>0.1080807709914789</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02889341406778857</v>
+        <v>0.02663629765162924</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1503246737.862326</v>
+        <v>1523734754.181446</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1770475470332847</v>
+        <v>0.1187744549603917</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04414196555673599</v>
+        <v>0.03062858640369332</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3930068108.038417</v>
+        <v>3332803230.636527</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1314911176401926</v>
+        <v>0.1494284467446239</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03313910273400595</v>
+        <v>0.03348434913024947</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1449625608.785726</v>
+        <v>1366231172.540226</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1616039277991274</v>
+        <v>0.1265965787180084</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0336528399524206</v>
+        <v>0.04685653231227127</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3213504495.371735</v>
+        <v>5302066950.021932</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1336319683625535</v>
+        <v>0.1012205865461839</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06182149441693858</v>
+        <v>0.04871718505977882</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2626058210.002761</v>
+        <v>3758864118.064434</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1563938623924094</v>
+        <v>0.1688103095813504</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02273392104146236</v>
+        <v>0.02947459390067495</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4399737661.987195</v>
+        <v>3376977186.918852</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1204661036468838</v>
+        <v>0.1567304719531516</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03969989086517787</v>
+        <v>0.05124981796602418</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4193560499.595937</v>
+        <v>4861887248.970551</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086736744590265</v>
+        <v>0.1510258443182834</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02945611388337828</v>
+        <v>0.03080671814913302</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1502103963.859114</v>
+        <v>1335096968.24785</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1352545975386923</v>
+        <v>0.1308059253381608</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04262650126229972</v>
+        <v>0.05577484528029712</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3832444337.644883</v>
+        <v>3655005162.49201</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1355548604731241</v>
+        <v>0.1736487229108615</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02351290018647475</v>
+        <v>0.02287648895505948</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1460992202.384397</v>
+        <v>1360346716.980404</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1787930043579476</v>
+        <v>0.1806673767517044</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03410438460615212</v>
+        <v>0.02501170319362845</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3723325413.422612</v>
+        <v>3592245163.051039</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1039297975607745</v>
+        <v>0.1266664008173411</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03757721364148059</v>
+        <v>0.04755033491425781</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3558257558.675514</v>
+        <v>3245198680.908782</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1354902876939526</v>
+        <v>0.1898598734005907</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02619314819960623</v>
+        <v>0.03236158335582957</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3310847479.089683</v>
+        <v>2672987310.64432</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1608288854061606</v>
+        <v>0.1434363486061354</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0321289801199921</v>
+        <v>0.02232007812969193</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1873405823.255932</v>
+        <v>1391759722.515187</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1277500481175239</v>
+        <v>0.1768478813013522</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03051059304382442</v>
+        <v>0.03816300760467636</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,13 +2194,13 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4889321476.483252</v>
+        <v>5115646583.699617</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08898349449217324</v>
+        <v>0.07879388184959266</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0378696796409402</v>
+        <v>0.03876891390806123</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4158991271.689134</v>
+        <v>4748325537.968954</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1289944238164173</v>
+        <v>0.1532492030214719</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02404813650699655</v>
+        <v>0.02614762502411143</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4930870873.466192</v>
+        <v>4183922145.419566</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1086875515932749</v>
+        <v>0.1290599080007312</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02385564484765894</v>
+        <v>0.02805094427970985</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3507686199.22794</v>
+        <v>4013160275.001931</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1000113627529888</v>
+        <v>0.1587170695840374</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04534144607507208</v>
+        <v>0.04243938672308763</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2511774575.170477</v>
+        <v>3040611378.835047</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1003826616202135</v>
+        <v>0.1028888114453032</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03515487207501004</v>
+        <v>0.04526930648186862</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5614965022.905699</v>
+        <v>4451711276.624265</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1504032048855424</v>
+        <v>0.1343871429736819</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05166228705190452</v>
+        <v>0.04735422352741005</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,16 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2358855683.228362</v>
+        <v>2204359815.619585</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1680269233205084</v>
+        <v>0.1796520785788094</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05416894531299969</v>
+        <v>0.05281999390741456</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2772626545.410363</v>
+        <v>3229333396.630871</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08023615921358125</v>
+        <v>0.1012078721976625</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04389861027279764</v>
+        <v>0.04544963141388313</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5638606968.387653</v>
+        <v>3899659077.713675</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1698978460877444</v>
+        <v>0.1210986552550965</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02808864389318185</v>
+        <v>0.02834557357586368</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1627642086.583097</v>
+        <v>1563352859.831836</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0715150681052191</v>
+        <v>0.09984174095060243</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03215033069636129</v>
+        <v>0.04370954988942106</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3085210799.486038</v>
+        <v>3330803626.687573</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07297713406596948</v>
+        <v>0.09629678204631613</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04385243440933365</v>
+        <v>0.0412503731404337</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3780376434.621447</v>
+        <v>2602747616.869124</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1389918625591698</v>
+        <v>0.1836449561308234</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03429923426739994</v>
+        <v>0.0238121958872337</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2292919996.767112</v>
+        <v>2325339705.56274</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1205712407903223</v>
+        <v>0.1594646178552661</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03136420498131198</v>
+        <v>0.03769727426102899</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4498752991.055563</v>
+        <v>4924589480.713352</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09155433711381689</v>
+        <v>0.1197113002504003</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03336363807181457</v>
+        <v>0.02253098057905013</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1885503868.721947</v>
+        <v>1452385846.37931</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1824829203677034</v>
+        <v>0.16595714413597</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03165194715817416</v>
+        <v>0.02394307172458914</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4343255271.565847</v>
+        <v>3981968856.229007</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1054108549402155</v>
+        <v>0.08536031270353174</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04999937207940593</v>
+        <v>0.04836266914394632</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1646495197.277453</v>
+        <v>1420849357.634796</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1515929550910146</v>
+        <v>0.1720471677438713</v>
       </c>
       <c r="G79" t="n">
-        <v>0.039513000649316</v>
+        <v>0.03491566936202847</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4269303278.832713</v>
+        <v>4245302191.770702</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09576210833256317</v>
+        <v>0.06991167978254878</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02590701497747488</v>
+        <v>0.03440164061426711</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3317729645.807538</v>
+        <v>4536662056.897123</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1073019529167872</v>
+        <v>0.09333821140424267</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03130428817903762</v>
+        <v>0.03260083044054352</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5543063471.366537</v>
+        <v>3595798795.378571</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1959610160308658</v>
+        <v>0.195714636506529</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02704190051969493</v>
+        <v>0.02228324557930793</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1576039801.867284</v>
+        <v>2441822053.778565</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09545850256721541</v>
+        <v>0.1174611788314882</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02972289381613534</v>
+        <v>0.04172250686146959</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1928502564.971484</v>
+        <v>1983828265.413959</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07586442650758415</v>
+        <v>0.09422066382780618</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04934184838971098</v>
+        <v>0.04802281309137398</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3368877546.126883</v>
+        <v>2669339053.5204</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1134499361747537</v>
+        <v>0.1669191286218882</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04799637444842953</v>
+        <v>0.05470752347511734</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2037759495.179275</v>
+        <v>1711236795.426494</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1151515180670636</v>
+        <v>0.1385404641698117</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02399283981654905</v>
+        <v>0.02466428843382161</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1250139330.984793</v>
+        <v>1396355848.212705</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1544405250334824</v>
+        <v>0.1678944294503653</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03223174088766127</v>
+        <v>0.04335196520135393</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2445862812.534335</v>
+        <v>2931750603.284285</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1180849853568854</v>
+        <v>0.1176325183176395</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03396636732387698</v>
+        <v>0.03304337077121125</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3438470514.959852</v>
+        <v>2935289073.274084</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1525106583562655</v>
+        <v>0.125513803491658</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03317720901214823</v>
+        <v>0.04015295850602082</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1653191927.584862</v>
+        <v>1386602990.161638</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1046645625451193</v>
+        <v>0.1082793268361802</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03453010460123331</v>
+        <v>0.03634965641049893</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1535753225.584165</v>
+        <v>2047149592.700349</v>
       </c>
       <c r="F91" t="n">
-        <v>0.162537990013268</v>
+        <v>0.1713590363656774</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04820625315505594</v>
+        <v>0.05823149705267865</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2181322564.236117</v>
+        <v>2428608778.480515</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1103769783260226</v>
+        <v>0.1085023282347187</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03594927439033255</v>
+        <v>0.03332995021928535</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3615434907.66251</v>
+        <v>3061677277.626211</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1040248836232034</v>
+        <v>0.09438895317669124</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04732329922880132</v>
+        <v>0.04324848648618581</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2118394755.936268</v>
+        <v>1785389856.526071</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1102437620424263</v>
+        <v>0.1497894422347306</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0395747511697113</v>
+        <v>0.04245695528144562</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2997557871.236418</v>
+        <v>3126399117.655039</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1272416703072896</v>
+        <v>0.1253260446908386</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04788106405232037</v>
+        <v>0.04539415005899885</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2072985222.640304</v>
+        <v>1857834335.805908</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1162152054239082</v>
+        <v>0.12285886670091</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03525200680460793</v>
+        <v>0.03516262132757011</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3465736409.092134</v>
+        <v>3515803812.71055</v>
       </c>
       <c r="F97" t="n">
-        <v>0.160643649671361</v>
+        <v>0.1515968925319598</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02835605358302844</v>
+        <v>0.02196741514696033</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3273166128.016191</v>
+        <v>3613253997.408602</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1176200836151977</v>
+        <v>0.08288277700359806</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02911356559692605</v>
+        <v>0.02325718048993765</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2385694548.391933</v>
+        <v>2264857583.379026</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1386241490006314</v>
+        <v>0.1412146030357286</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0304205518759395</v>
+        <v>0.02277017046567115</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3692098635.248859</v>
+        <v>4031211934.872881</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1538565466466068</v>
+        <v>0.1158154786763384</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02379788193848338</v>
+        <v>0.0208336384588913</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3178310809.316197</v>
+        <v>3554160995.325644</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1557058776854622</v>
+        <v>0.173686964083013</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04374377041849112</v>
+        <v>0.05126850275356178</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_237.xlsx
+++ b/output/fit_clients/fit_round_237.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2058317876.544605</v>
+        <v>2257797900.941536</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0943963313801543</v>
+        <v>0.1072955402139018</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03748622960029434</v>
+        <v>0.02764393988460917</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2245302589.438323</v>
+        <v>2208280875.513308</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1713806585621926</v>
+        <v>0.1343549845900986</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04755283385627699</v>
+        <v>0.04607664087420545</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3695481955.119376</v>
+        <v>4082231092.406676</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1542601660710746</v>
+        <v>0.1545872865788975</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02727372468479</v>
+        <v>0.02323864628373091</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>128</v>
+      </c>
+      <c r="J4" t="n">
+        <v>237</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3086622687.967839</v>
+        <v>4219922691.80927</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06883001786365567</v>
+        <v>0.06705897016425624</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0385072160203229</v>
+        <v>0.0330638265121299</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96</v>
+      </c>
+      <c r="J5" t="n">
+        <v>237</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2689434624.646075</v>
+        <v>1830546218.119769</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1056252531627034</v>
+        <v>0.1406613080359419</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04916691872576625</v>
+        <v>0.04711423555740054</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2733295591.229243</v>
+        <v>2876150921.598682</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07451105215957352</v>
+        <v>0.08372250190421707</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04603600273864458</v>
+        <v>0.03572337643363735</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3779329501.146876</v>
+        <v>3076420393.000568</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1418123443169376</v>
+        <v>0.1884341986635777</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02272867802692217</v>
+        <v>0.02385329954863363</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>67</v>
+      </c>
+      <c r="J8" t="n">
+        <v>234</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1574558053.396969</v>
+        <v>1810837304.059862</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1363875583945729</v>
+        <v>0.1951963945305589</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03269576474293329</v>
+        <v>0.03082297988158875</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4981282007.129937</v>
+        <v>4526804997.344735</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1322156134037444</v>
+        <v>0.174277162090553</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05298995836203308</v>
+        <v>0.03556007162843373</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>216</v>
+      </c>
+      <c r="J10" t="n">
+        <v>237</v>
+      </c>
+      <c r="K10" t="n">
+        <v>112.6193762356097</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +818,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2589975140.121919</v>
+        <v>3726555827.353748</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1694334421567955</v>
+        <v>0.1399337695380803</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03831936195206417</v>
+        <v>0.04244561281106053</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>99</v>
+      </c>
+      <c r="J11" t="n">
+        <v>236</v>
+      </c>
+      <c r="K11" t="n">
+        <v>91.7469195778212</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2647379536.709354</v>
+        <v>2567541791.985805</v>
       </c>
       <c r="F12" t="n">
-        <v>0.171757709247558</v>
+        <v>0.1572264287953949</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03753040623420102</v>
+        <v>0.03925737774779909</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3658919713.473207</v>
+        <v>3648273214.303763</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08998687937137623</v>
+        <v>0.08328631427437512</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03092204455197934</v>
+        <v>0.02035088119359368</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>119</v>
+      </c>
+      <c r="J13" t="n">
+        <v>237</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3058097461.961324</v>
+        <v>3556658626.122327</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1807652766102183</v>
+        <v>0.1258858060324167</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04048754527221531</v>
+        <v>0.03734407165718714</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>45</v>
+      </c>
+      <c r="J14" t="n">
+        <v>237</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1241379575.961431</v>
+        <v>1719065779.177266</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09540258499429626</v>
+        <v>0.09240137374505117</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0477407901770167</v>
+        <v>0.04002936974442618</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1986600512.852746</v>
+        <v>1819569961.082236</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09172980516322579</v>
+        <v>0.07012975347847757</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04759210815529722</v>
+        <v>0.03536415756843668</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4204728792.345526</v>
+        <v>4026904011.84038</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1592723623353573</v>
+        <v>0.1152344951911796</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04484516667650268</v>
+        <v>0.04597485295460441</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>114</v>
+      </c>
+      <c r="J17" t="n">
+        <v>237</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1065,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2950849799.701702</v>
+        <v>2455024362.148624</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1352340931109802</v>
+        <v>0.1157107570544302</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02409657140746024</v>
+        <v>0.03268121287857235</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>59</v>
+      </c>
+      <c r="J18" t="n">
+        <v>233</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>895789441.9619162</v>
+        <v>1328508426.592287</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1899971422127533</v>
+        <v>0.1672442873516456</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02290000556626515</v>
+        <v>0.02625422589804979</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1135,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1797102958.069539</v>
+        <v>2407349852.298863</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1183418464120432</v>
+        <v>0.103090734420665</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02408379671858834</v>
+        <v>0.03061047560199286</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1170,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1729269563.357987</v>
+        <v>1981967682.878341</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08549513996769761</v>
+        <v>0.1013152103388126</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04018977458641191</v>
+        <v>0.03402953205585</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2679253428.460448</v>
+        <v>3949510221.66693</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0980046276940623</v>
+        <v>0.1303917454509873</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05024099001034002</v>
+        <v>0.05461160503493709</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>60</v>
+      </c>
+      <c r="J22" t="n">
+        <v>237</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1286169069.872578</v>
+        <v>1489451472.009901</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1531559847732413</v>
+        <v>0.1528619552243017</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05027612270236344</v>
+        <v>0.04061134158857988</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1269,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3945094842.919728</v>
+        <v>3369738818.717717</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09129540200655646</v>
+        <v>0.125593509001824</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0319509212124775</v>
+        <v>0.02738020801322809</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>72</v>
+      </c>
+      <c r="J24" t="n">
+        <v>236</v>
+      </c>
+      <c r="K24" t="n">
+        <v>64.79042580546624</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1312,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1176226494.700646</v>
+        <v>1180888445.921364</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1142927832346284</v>
+        <v>0.1074977701536633</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02543262761307062</v>
+        <v>0.02624069758490552</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1325395189.405711</v>
+        <v>1263050508.025691</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1244643120091674</v>
+        <v>0.1230195659378479</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02360787016602695</v>
+        <v>0.03501156894998691</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1376,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4066919858.941018</v>
+        <v>3489868120.430623</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1245082307511832</v>
+        <v>0.1228775885410845</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02359526434847141</v>
+        <v>0.01910145216054975</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>96</v>
+      </c>
+      <c r="J27" t="n">
+        <v>236</v>
+      </c>
+      <c r="K27" t="n">
+        <v>65.50853201424034</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2864605815.787864</v>
+        <v>3591053808.579881</v>
       </c>
       <c r="F28" t="n">
-        <v>0.131744559376051</v>
+        <v>0.1372118494696782</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0429254642736755</v>
+        <v>0.04680767657996109</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>48</v>
+      </c>
+      <c r="J28" t="n">
+        <v>237</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5224552315.314366</v>
+        <v>4308590546.269521</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1221053312260531</v>
+        <v>0.1402676500034631</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0377904097455682</v>
+        <v>0.02922641618622415</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>226</v>
+      </c>
+      <c r="J29" t="n">
+        <v>237</v>
+      </c>
+      <c r="K29" t="n">
+        <v>116.4279046930926</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1859702628.739419</v>
+        <v>1649503780.147056</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1376550918361708</v>
+        <v>0.1216721756078763</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03479415979422016</v>
+        <v>0.03950917740770288</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1176910303.878068</v>
+        <v>1042045001.356375</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08722525028208027</v>
+        <v>0.111479919604904</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03885823860022457</v>
+        <v>0.05147697120424181</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1576147820.587701</v>
+        <v>1322765473.343653</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0887710854323794</v>
+        <v>0.09382951476398743</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03011127724357499</v>
+        <v>0.03538176578610309</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3014813109.285142</v>
+        <v>2080620440.254769</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1391104282509697</v>
+        <v>0.1457105166856975</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03693925685035456</v>
+        <v>0.05734117835140348</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1122501610.778606</v>
+        <v>1158136205.578068</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1219305110254348</v>
+        <v>0.1032494715647291</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0267294110501736</v>
+        <v>0.0272760988081565</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1204787939.022758</v>
+        <v>1122455515.585644</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1041235820784966</v>
+        <v>0.1033169909094103</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02836029329537936</v>
+        <v>0.03958636576260584</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2130443904.53539</v>
+        <v>2585116191.512259</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1498502669714838</v>
+        <v>0.1266768883686396</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02839398038919474</v>
+        <v>0.02450039952761138</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2319603045.765193</v>
+        <v>2703693141.332719</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08867893838188941</v>
+        <v>0.09744657944381568</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0331541955244721</v>
+        <v>0.02988265515794265</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2117495520.454552</v>
+        <v>1882587926.375488</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1033388987091518</v>
+        <v>0.1179308714060904</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02823421913967443</v>
+        <v>0.0366647552003928</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1946470050.61278</v>
+        <v>1684468228.89315</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1184925349243248</v>
+        <v>0.1426356402325646</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02078325395629679</v>
+        <v>0.02131097010313255</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1696442262.815845</v>
+        <v>1527487218.28704</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1318207269861176</v>
+        <v>0.1537710484680365</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04812762263691107</v>
+        <v>0.05746823010506219</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2206174184.502584</v>
+        <v>2785808649.837052</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1270658474082828</v>
+        <v>0.1557371409563672</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0383523699635852</v>
+        <v>0.03141956366651583</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3936709803.005907</v>
+        <v>4124490509.963693</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08467496219301873</v>
+        <v>0.1146241557468117</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04513116333991725</v>
+        <v>0.03618276849839006</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>97</v>
+      </c>
+      <c r="J42" t="n">
+        <v>237</v>
+      </c>
+      <c r="K42" t="n">
+        <v>112.2585063327995</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2981016974.302247</v>
+        <v>2151704922.339269</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1564804189572092</v>
+        <v>0.148510470448764</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02167264455719602</v>
+        <v>0.01624441198004884</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2070775345.007688</v>
+        <v>1773413490.240334</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09745261618664655</v>
+        <v>0.08253363329354858</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02806554331769145</v>
+        <v>0.02288454773522881</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2350338250.175846</v>
+        <v>1835064274.38998</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1545423143900766</v>
+        <v>0.1807315230781746</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05028031789525494</v>
+        <v>0.03681055212743257</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2053,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4829769510.368052</v>
+        <v>4770561356.700316</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1691678111722713</v>
+        <v>0.1775724986845336</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04909620552364136</v>
+        <v>0.04364228108123407</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>136</v>
+      </c>
+      <c r="J46" t="n">
+        <v>236</v>
+      </c>
+      <c r="K46" t="n">
+        <v>108.2339037934823</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3585464961.229579</v>
+        <v>3194896601.774682</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1777549014182099</v>
+        <v>0.1700380205743702</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05866098254796271</v>
+        <v>0.03844144990172721</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>106</v>
+      </c>
+      <c r="J47" t="n">
+        <v>236</v>
+      </c>
+      <c r="K47" t="n">
+        <v>51.81112053942605</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4498975595.140163</v>
+        <v>4092317834.209369</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1080807709914789</v>
+        <v>0.09017153933206068</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02663629765162924</v>
+        <v>0.02598568437072361</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>116</v>
+      </c>
+      <c r="J48" t="n">
+        <v>237</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1523734754.181446</v>
+        <v>1401349699.110674</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1187744549603917</v>
+        <v>0.1544660360714483</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03062858640369332</v>
+        <v>0.03045532600860192</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3332803230.636527</v>
+        <v>3864310547.407394</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1494284467446239</v>
+        <v>0.1139500801439687</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03348434913024947</v>
+        <v>0.04503321871734797</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>77</v>
+      </c>
+      <c r="J50" t="n">
+        <v>237</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1366231172.540226</v>
+        <v>1277508781.596418</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1265965787180084</v>
+        <v>0.1305369190550711</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04685653231227127</v>
+        <v>0.0462055024000373</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2267,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5302066950.021932</v>
+        <v>3423722970.104825</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1012205865461839</v>
+        <v>0.1114035265601185</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04871718505977882</v>
+        <v>0.04003075630485393</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>155</v>
+      </c>
+      <c r="J52" t="n">
+        <v>235</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2302,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3758864118.064434</v>
+        <v>3276612032.20124</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1688103095813504</v>
+        <v>0.1666607650852498</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02947459390067495</v>
+        <v>0.02395314719936736</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>33</v>
+      </c>
+      <c r="J53" t="n">
+        <v>234</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3376977186.918852</v>
+        <v>4178466432.123558</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1567304719531516</v>
+        <v>0.1405796563935938</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05124981796602418</v>
+        <v>0.04267185684187252</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>126</v>
+      </c>
+      <c r="J54" t="n">
+        <v>236</v>
+      </c>
+      <c r="K54" t="n">
+        <v>108.5775447383001</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4861887248.970551</v>
+        <v>4531539226.440334</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1510258443182834</v>
+        <v>0.2033552271170221</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03080671814913302</v>
+        <v>0.02090590191131532</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>106</v>
+      </c>
+      <c r="J55" t="n">
+        <v>236</v>
+      </c>
+      <c r="K55" t="n">
+        <v>106.2995272161876</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1335096968.24785</v>
+        <v>1256033254.638029</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1308059253381608</v>
+        <v>0.1412330397814345</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05577484528029712</v>
+        <v>0.04970326497480995</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3655005162.49201</v>
+        <v>3414519317.285338</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1736487229108615</v>
+        <v>0.1819920363914204</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02287648895505948</v>
+        <v>0.02123401207729316</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>93</v>
+      </c>
+      <c r="J57" t="n">
+        <v>235</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1360346716.980404</v>
+        <v>1448479195.579082</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1806673767517044</v>
+        <v>0.1713951136709899</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02501170319362845</v>
+        <v>0.03336025107291184</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3592245163.051039</v>
+        <v>4545186844.214788</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1266664008173411</v>
+        <v>0.1183112135954534</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04755033491425781</v>
+        <v>0.03987560752361175</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>114</v>
+      </c>
+      <c r="J59" t="n">
+        <v>237</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2551,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3245198680.908782</v>
+        <v>2819837868.410357</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1898598734005907</v>
+        <v>0.1574935849119784</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03236158335582957</v>
+        <v>0.02357006705290424</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>33</v>
+      </c>
+      <c r="J60" t="n">
+        <v>231</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2672987310.64432</v>
+        <v>3043776481.572757</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1434363486061354</v>
+        <v>0.1412932578292874</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02232007812969193</v>
+        <v>0.02834373532676908</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1391759722.515187</v>
+        <v>1907782091.617389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1768478813013522</v>
+        <v>0.183376621042931</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03816300760467636</v>
+        <v>0.04094487789197764</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2656,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5115646583.699617</v>
+        <v>4421893082.456562</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07879388184959266</v>
+        <v>0.0674776386109112</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03876891390806123</v>
+        <v>0.03616166831709145</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>115</v>
+      </c>
+      <c r="J63" t="n">
+        <v>237</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2685,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4748325537.968954</v>
+        <v>4622826500.758597</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1532492030214719</v>
+        <v>0.1880076111641785</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02614762502411143</v>
+        <v>0.03474456542152297</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>117</v>
+      </c>
+      <c r="J64" t="n">
+        <v>236</v>
+      </c>
+      <c r="K64" t="n">
+        <v>104.4706451961371</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4183922145.419566</v>
+        <v>4603113196.913205</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1290599080007312</v>
+        <v>0.1740815971916044</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02805094427970985</v>
+        <v>0.02685719923970793</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>189</v>
+      </c>
+      <c r="J65" t="n">
+        <v>237</v>
+      </c>
+      <c r="K65" t="n">
+        <v>109.3601219504165</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4013160275.001931</v>
+        <v>4418187556.352605</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1587170695840374</v>
+        <v>0.1571720394555706</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04243938672308763</v>
+        <v>0.0397636143885815</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>117</v>
+      </c>
+      <c r="J66" t="n">
+        <v>236</v>
+      </c>
+      <c r="K66" t="n">
+        <v>97.43406703558996</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3040611378.835047</v>
+        <v>2605158824.801242</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1028888114453032</v>
+        <v>0.07691287917885332</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04526930648186862</v>
+        <v>0.04010541335641988</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>5</v>
+      </c>
+      <c r="J67" t="n">
+        <v>235</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4451711276.624265</v>
+        <v>5297776518.370667</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1343871429736819</v>
+        <v>0.1374152092535083</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04735422352741005</v>
+        <v>0.04930703066639455</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>120</v>
+      </c>
+      <c r="J68" t="n">
+        <v>236</v>
+      </c>
+      <c r="K68" t="n">
+        <v>106.4990325852165</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2204359815.619585</v>
+        <v>1561073408.045509</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1796520785788094</v>
+        <v>0.1190527698732054</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05281999390741456</v>
+        <v>0.05524131756797429</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3229333396.630871</v>
+        <v>3148537037.350694</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1012078721976625</v>
+        <v>0.07208539107701661</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04544963141388313</v>
+        <v>0.0423628177756515</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>37</v>
+      </c>
+      <c r="J70" t="n">
+        <v>234</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,17 +2944,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3899659077.713675</v>
+        <v>5072736990.946488</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1210986552550965</v>
+        <v>0.1368084575095624</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02834557357586368</v>
+        <v>0.02422452973950613</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>179</v>
+      </c>
+      <c r="J71" t="n">
+        <v>237</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1563352859.831836</v>
+        <v>1637031483.077762</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09984174095060243</v>
+        <v>0.09408765736964916</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04370954988942106</v>
+        <v>0.03914044355717446</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3330803626.687573</v>
+        <v>2185713376.841176</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09629678204631613</v>
+        <v>0.06790221030553924</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0412503731404337</v>
+        <v>0.03339729652059865</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>13</v>
+      </c>
+      <c r="J73" t="n">
+        <v>233</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2602747616.869124</v>
+        <v>3232603817.799762</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1836449561308234</v>
+        <v>0.1302830085463957</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0238121958872337</v>
+        <v>0.03063592899409108</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>68</v>
+      </c>
+      <c r="J74" t="n">
+        <v>236</v>
+      </c>
+      <c r="K74" t="n">
+        <v>68.37609975786137</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2325339705.56274</v>
+        <v>2055564398.869991</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1594646178552661</v>
+        <v>0.1082026040498418</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03769727426102899</v>
+        <v>0.02457407245324618</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3121,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4924589480.713352</v>
+        <v>3441221233.201188</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1197113002504003</v>
+        <v>0.1041710675162429</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02253098057905013</v>
+        <v>0.03119111038100153</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>110</v>
+      </c>
+      <c r="J76" t="n">
+        <v>236</v>
+      </c>
+      <c r="K76" t="n">
+        <v>65.20579604825197</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1452385846.37931</v>
+        <v>1577588826.150968</v>
       </c>
       <c r="F77" t="n">
-        <v>0.16595714413597</v>
+        <v>0.1592662183996405</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02394307172458914</v>
+        <v>0.02115421111431214</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3193,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3981968856.229007</v>
+        <v>3802332919.037443</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08536031270353174</v>
+        <v>0.08541982308078334</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04836266914394632</v>
+        <v>0.05545069286550258</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>117</v>
+      </c>
+      <c r="J78" t="n">
+        <v>237</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1420849357.634796</v>
+        <v>1679965248.51111</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1720471677438713</v>
+        <v>0.1218538280043285</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03491566936202847</v>
+        <v>0.03521841690136445</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4245302191.770702</v>
+        <v>4751357223.16048</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06991167978254878</v>
+        <v>0.08717538336460244</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03440164061426711</v>
+        <v>0.02548037686156667</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>115</v>
+      </c>
+      <c r="J80" t="n">
+        <v>237</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4536662056.897123</v>
+        <v>3804079123.24158</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09333821140424267</v>
+        <v>0.133414178286327</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03260083044054352</v>
+        <v>0.02434499514127207</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>109</v>
+      </c>
+      <c r="J81" t="n">
+        <v>236</v>
+      </c>
+      <c r="K81" t="n">
+        <v>76.39960024919677</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3595798795.378571</v>
+        <v>4619651187.109289</v>
       </c>
       <c r="F82" t="n">
-        <v>0.195714636506529</v>
+        <v>0.2001427404858064</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02228324557930793</v>
+        <v>0.01782832119466635</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>179</v>
+      </c>
+      <c r="J82" t="n">
+        <v>237</v>
+      </c>
+      <c r="K82" t="n">
+        <v>110.3184022830508</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2441822053.778565</v>
+        <v>2189217881.781916</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1174611788314882</v>
+        <v>0.1510775221892996</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04172250686146959</v>
+        <v>0.03333712998096746</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1983828265.413959</v>
+        <v>2503917131.612892</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09422066382780618</v>
+        <v>0.1050506874092946</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04802281309137398</v>
+        <v>0.03772237363000402</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2669339053.5204</v>
+        <v>2217545053.952056</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1669191286218882</v>
+        <v>0.1534032030822065</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05470752347511734</v>
+        <v>0.05021418769740654</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>32</v>
+      </c>
+      <c r="J85" t="n">
+        <v>235</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1711236795.426494</v>
+        <v>2787380982.405182</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1385404641698117</v>
+        <v>0.1611146157867019</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02466428843382161</v>
+        <v>0.02591561732182559</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1396355848.212705</v>
+        <v>1095164297.086425</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1678944294503653</v>
+        <v>0.1482120705700971</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04335196520135393</v>
+        <v>0.03016027826784934</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2931750603.284285</v>
+        <v>2686051687.613757</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1176325183176395</v>
+        <v>0.1145254584972954</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03304337077121125</v>
+        <v>0.04008067621664639</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>34</v>
+      </c>
+      <c r="J88" t="n">
+        <v>232</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2935289073.274084</v>
+        <v>2178420185.570797</v>
       </c>
       <c r="F89" t="n">
-        <v>0.125513803491658</v>
+        <v>0.1307035308773296</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04015295850602082</v>
+        <v>0.03528681751829287</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>17</v>
+      </c>
+      <c r="J89" t="n">
+        <v>225</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1386602990.161638</v>
+        <v>1420598705.888407</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1082793268361802</v>
+        <v>0.1014439784955183</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03634965641049893</v>
+        <v>0.05213667037693068</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2047149592.700349</v>
+        <v>1782524144.574051</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1713590363656774</v>
+        <v>0.1669701270118404</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05823149705267865</v>
+        <v>0.04876752829311833</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2428608778.480515</v>
+        <v>2875530207.375176</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1085023282347187</v>
+        <v>0.07646049194703836</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03332995021928535</v>
+        <v>0.04263552033220645</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3061677277.626211</v>
+        <v>3263664773.831807</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09438895317669124</v>
+        <v>0.1350179748461995</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04324848648618581</v>
+        <v>0.04167247484364117</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>105</v>
+      </c>
+      <c r="J93" t="n">
+        <v>235</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1785389856.526071</v>
+        <v>2225393678.379385</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1497894422347306</v>
+        <v>0.1689420438175981</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04245695528144562</v>
+        <v>0.03357261070182063</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3126399117.655039</v>
+        <v>3284247582.772467</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1253260446908386</v>
+        <v>0.09550188823732879</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04539415005899885</v>
+        <v>0.03668956259706711</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1857834335.805908</v>
+        <v>1852870849.860868</v>
       </c>
       <c r="F96" t="n">
-        <v>0.12285886670091</v>
+        <v>0.09934612393325544</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03516262132757011</v>
+        <v>0.04217117474027735</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3515803812.71055</v>
+        <v>4911131469.654023</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1515968925319598</v>
+        <v>0.1547654163938683</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02196741514696033</v>
+        <v>0.01838934035737474</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>115</v>
+      </c>
+      <c r="J97" t="n">
+        <v>236</v>
+      </c>
+      <c r="K97" t="n">
+        <v>107.4960494939123</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3613253997.408602</v>
+        <v>3766630059.19013</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08288277700359806</v>
+        <v>0.1002061980267661</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02325718048993765</v>
+        <v>0.0261088234133996</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>58</v>
+      </c>
+      <c r="J98" t="n">
+        <v>236</v>
+      </c>
+      <c r="K98" t="n">
+        <v>80.7797363240023</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2264857583.379026</v>
+        <v>3400606342.617983</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1412146030357286</v>
+        <v>0.1159089121539722</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02277017046567115</v>
+        <v>0.02896520838882939</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4031211934.872881</v>
+        <v>4427124506.077788</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1158154786763384</v>
+        <v>0.1389828988572742</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0208336384588913</v>
+        <v>0.02141107699923336</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>99</v>
+      </c>
+      <c r="J100" t="n">
+        <v>237</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3554160995.325644</v>
+        <v>3251974314.016668</v>
       </c>
       <c r="F101" t="n">
-        <v>0.173686964083013</v>
+        <v>0.2046292658762202</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05126850275356178</v>
+        <v>0.05606273943614712</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
